--- a/4/Tipo de Cambio Multilateral Chile 1995 a 2021 - Mensual.xlsx
+++ b/4/Tipo de Cambio Multilateral Chile 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
   <si>
     <t>Serie</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1340,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D320"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5322,6 +5325,20 @@
         <v>97.14</v>
       </c>
     </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>323</v>
+      </c>
+      <c r="B321">
+        <v>113.76</v>
+      </c>
+      <c r="C321">
+        <v>186.01</v>
+      </c>
+      <c r="D321">
+        <v>100.44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de Cambio Multilateral Chile 1995 a 2021 - Mensual.xlsx
+++ b/4/Tipo de Cambio Multilateral Chile 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
   <si>
     <t>Serie</t>
   </si>
@@ -986,6 +986,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1343,7 +1346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5339,6 +5342,20 @@
         <v>100.44</v>
       </c>
     </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>324</v>
+      </c>
+      <c r="B322">
+        <v>114.35</v>
+      </c>
+      <c r="C322">
+        <v>186.85</v>
+      </c>
+      <c r="D322">
+        <v>100.97</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/4/Tipo de Cambio Multilateral Chile 1995 a 2021 - Mensual.xlsx
+++ b/4/Tipo de Cambio Multilateral Chile 1995 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="326">
   <si>
     <t>Serie</t>
   </si>
@@ -989,6 +989,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D322"/>
+  <dimension ref="A1:D323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5356,6 +5359,20 @@
         <v>100.97</v>
       </c>
     </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>325</v>
+      </c>
+      <c r="B323">
+        <v>118.14</v>
+      </c>
+      <c r="C323">
+        <v>192.61</v>
+      </c>
+      <c r="D323">
+        <v>104.19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
